--- a/resources/test_data/test_data.xlsx
+++ b/resources/test_data/test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Vodafone Task\Assessment\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4183E2-5961-4FB6-B414-512ECBA127A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677814A1-EB6F-4066-8336-20DC0222403D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="1065" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{7C40F53C-1864-4F43-8F30-D2495F8C464A}"/>
+    <workbookView xWindow="5550" yWindow="1500" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{7C40F53C-1864-4F43-8F30-D2495F8C464A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -574,7 +574,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
